--- a/doc/log/log_201608040230_zenghuixiang.xlsx
+++ b/doc/log/log_201608040230_zenghuixiang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
   <si>
     <t>日期</t>
   </si>
@@ -25,7 +25,7 @@
     <t>原计划</t>
   </si>
   <si>
-    <t>已完成</t>
+    <t>执行</t>
   </si>
   <si>
     <t>2018.5.1</t>
@@ -34,12 +34,196 @@
     <t>16:00-18:00</t>
   </si>
   <si>
-    <t>创建模块的实体类，建立实体的相关属
-性，建立接口类以及相关方法的测试类
+    <t>探索创建模块的实体类，建立实体的相关属性，建立接口类以及相关方法的测试类
 。学习连接数据库的相关术语。</t>
   </si>
   <si>
     <t>已基本完成任务</t>
+  </si>
+  <si>
+    <t>2018.5.2</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>搭建环境，配置pom。</t>
+  </si>
+  <si>
+    <t>已基本完成</t>
+  </si>
+  <si>
+    <t>2018.5.3</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>配置各个文件的环境。</t>
+  </si>
+  <si>
+    <t>2018.5.4</t>
+  </si>
+  <si>
+    <t>学习@相关的注解。</t>
+  </si>
+  <si>
+    <t>完成了一部分</t>
+  </si>
+  <si>
+    <t>2018.5.5</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>建立实体类，建立实体类属性。</t>
+  </si>
+  <si>
+    <t>基本完成</t>
+  </si>
+  <si>
+    <t>2018.5.6</t>
+  </si>
+  <si>
+    <t>17:00-19:00</t>
+  </si>
+  <si>
+    <t>建立相关方法的测试类。</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>2018.5.7</t>
+  </si>
+  <si>
+    <t>建立虚接口类，模仿老师建立。</t>
+  </si>
+  <si>
+    <t>有一些地方还不懂</t>
+  </si>
+  <si>
+    <t>2018.5.8</t>
+  </si>
+  <si>
+    <t>15:00-17:00</t>
+  </si>
+  <si>
+    <t>建立实体类的管理类。</t>
+  </si>
+  <si>
+    <t>2018.5.9</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>学习连接数据库。</t>
+  </si>
+  <si>
+    <t>部分理解</t>
+  </si>
+  <si>
+    <t>2018.5.10</t>
+  </si>
+  <si>
+    <t>尝试连接数据库。</t>
+  </si>
+  <si>
+    <t>连接失败</t>
+  </si>
+  <si>
+    <t>2018.5.11</t>
+  </si>
+  <si>
+    <t>8:00-10:00</t>
+  </si>
+  <si>
+    <t>再次连接数据库。将假数据导进数据库。</t>
+  </si>
+  <si>
+    <t>连接成功，完成</t>
+  </si>
+  <si>
+    <t>2018.5.12</t>
+  </si>
+  <si>
+    <t>尝试将班级信息数据导到数据库。</t>
+  </si>
+  <si>
+    <t>导入失败</t>
+  </si>
+  <si>
+    <t>2018.5.13</t>
+  </si>
+  <si>
+    <t>将小组模块合并。</t>
+  </si>
+  <si>
+    <t>合并之后不能相互
+运行</t>
+  </si>
+  <si>
+    <t>2018.5.14</t>
+  </si>
+  <si>
+    <t>重新搭载环境。</t>
+  </si>
+  <si>
+    <t>2018.5.15</t>
+  </si>
+  <si>
+    <t>各小组互相git项目，进行统一。</t>
+  </si>
+  <si>
+    <t>项目不统一</t>
+  </si>
+  <si>
+    <t>2018.5.16</t>
+  </si>
+  <si>
+    <t>项目统一，整体进行测试</t>
+  </si>
+  <si>
+    <t>测试失败</t>
+  </si>
+  <si>
+    <t>2018.5.17</t>
+  </si>
+  <si>
+    <t>以为自己的环境有问题，一直在寻找问题
+所在。</t>
+  </si>
+  <si>
+    <t>没找到</t>
+  </si>
+  <si>
+    <t>2018.5.18</t>
+  </si>
+  <si>
+    <t>全小组进行讨论。</t>
+  </si>
+  <si>
+    <t>2018.5.19</t>
+  </si>
+  <si>
+    <t>17:00-19:00
+22:00-23:30</t>
+  </si>
+  <si>
+    <t>小组开会，重新搭载环境，组环境统
+一，重新开始.</t>
+  </si>
+  <si>
+    <t>2018.5.20</t>
+  </si>
+  <si>
+    <t>8:00-12:00</t>
+  </si>
+  <si>
+    <t>建立本组的所有模块，完成自己的实体
+类，以及测试类，跑进数据库。</t>
   </si>
 </sst>
 </file>
@@ -47,10 +231,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -75,6 +259,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -84,14 +276,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,12 +307,20 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -114,22 +330,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,28 +344,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -173,42 +352,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,181 +411,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,17 +596,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,47 +617,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,7 +642,57 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,10 +704,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -532,142 +716,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -991,46 +1178,372 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="1" max="2" width="10.5" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="34" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:4">
+    <row r="1" ht="26" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="65" customHeight="1" spans="1:4">
+    <row r="2" ht="64.6" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="64.6" customHeight="1" spans="1:4">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="64.6" customHeight="1" spans="1:5">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040230_zenghuixiang.xlsx
+++ b/doc/log/log_201608040230_zenghuixiang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
   <si>
     <t>日期</t>
   </si>
@@ -224,6 +224,35 @@
   <si>
     <t>建立本组的所有模块，完成自己的实体
 类，以及测试类，跑进数据库。</t>
+  </si>
+  <si>
+    <t>2018.5.21</t>
+  </si>
+  <si>
+    <t>学习jeecg</t>
+  </si>
+  <si>
+    <t>不怎么懂</t>
+  </si>
+  <si>
+    <t>2018.5.22</t>
+  </si>
+  <si>
+    <t>在eclipse中添加jeecg</t>
+  </si>
+  <si>
+    <t>出错,eclipse一直
+更新，导致maven
+项目都不能运行</t>
+  </si>
+  <si>
+    <t>2018.5.23</t>
+  </si>
+  <si>
+    <t>20:00-22:00</t>
+  </si>
+  <si>
+    <t>重新安装eclipse，安装截图给孙鑫鑫</t>
   </si>
 </sst>
 </file>
@@ -231,10 +260,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -250,6 +279,13 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -267,8 +303,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,24 +402,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,89 +424,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -405,25 +434,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,157 +608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,24 +645,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,13 +702,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,10 +733,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -716,133 +745,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1178,10 +1207,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1426,7 +1455,7 @@
       <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1491,7 +1520,7 @@
       <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E18" t="s">
@@ -1519,10 +1548,10 @@
       <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="2" t="s">
         <v>64</v>
       </c>
       <c r="E20" t="s">
@@ -1539,12 +1568,72 @@
       <c r="C21" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E21" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="22" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/doc/log/log_201608040230_zenghuixiang.xlsx
+++ b/doc/log/log_201608040230_zenghuixiang.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>日期</t>
   </si>
@@ -253,6 +253,92 @@
   </si>
   <si>
     <t>重新安装eclipse，安装截图给孙鑫鑫</t>
+  </si>
+  <si>
+    <t>2018.5.24</t>
+  </si>
+  <si>
+    <t>琢磨jeecg</t>
+  </si>
+  <si>
+    <t>eclipse还是一直
+更新</t>
+  </si>
+  <si>
+    <t>2018.5.25</t>
+  </si>
+  <si>
+    <t>好像啥也没干</t>
+  </si>
+  <si>
+    <t>2018.5.26</t>
+  </si>
+  <si>
+    <t>2018.5.27</t>
+  </si>
+  <si>
+    <t>2018.5.28</t>
+  </si>
+  <si>
+    <t>学习web</t>
+  </si>
+  <si>
+    <t>2018.5.29</t>
+  </si>
+  <si>
+    <t>学习环境配置</t>
+  </si>
+  <si>
+    <t>2018.5.30</t>
+  </si>
+  <si>
+    <t>学习老师的web结构,以及一些配置。</t>
+  </si>
+  <si>
+    <t>2018.5.31</t>
+  </si>
+  <si>
+    <t>运行老师的web，尝试建立自己的web。</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>2018.6.01</t>
+  </si>
+  <si>
+    <t>12:00-18:00</t>
+  </si>
+  <si>
+    <t>调配环境，运行老师的web，仿照老师一步一步建立。</t>
+  </si>
+  <si>
+    <t>运行成功</t>
+  </si>
+  <si>
+    <t>2018.6.02</t>
+  </si>
+  <si>
+    <t>修改base中的一些配置</t>
+  </si>
+  <si>
+    <t>完成，但是有些
+看不懂</t>
+  </si>
+  <si>
+    <t>2018.6.03</t>
+  </si>
+  <si>
+    <t>建立自己实体类的表格信息</t>
+  </si>
+  <si>
+    <t>2018.6.04</t>
+  </si>
+  <si>
+    <t>研究jsp文件</t>
+  </si>
+  <si>
+    <t>有些看不懂</t>
   </si>
 </sst>
 </file>
@@ -260,10 +346,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -282,7 +368,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,25 +381,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,16 +396,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,52 +424,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -417,6 +439,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -424,6 +462,54 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -434,19 +520,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,163 +688,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,6 +711,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,41 +734,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,6 +763,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -725,6 +800,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -733,145 +819,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1207,10 +1293,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1527,7 +1613,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" ht="64.6" customHeight="1" spans="1:4">
+    <row r="19" ht="64.6" customHeight="1" spans="1:5">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1539,6 +1625,9 @@
       </c>
       <c r="D19" t="s">
         <v>61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="64.6" customHeight="1" spans="1:5">
@@ -1599,7 +1688,7 @@
       <c r="D23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1617,23 +1706,374 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="4:4">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="4:4">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="4:4">
-      <c r="D30" s="2"/>
+    <row r="25" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" ht="64.6" customHeight="1" spans="2:4">
+      <c r="B26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D64" s="2"/>
+    </row>
+    <row r="65" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D65" s="2"/>
+    </row>
+    <row r="66" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D66" s="2"/>
+    </row>
+    <row r="67" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" s="2"/>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" s="2"/>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="4:4">
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="4:4">
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="4:4">
+      <c r="D79" s="2"/>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" s="2"/>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" s="2"/>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" s="2"/>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" s="2"/>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" s="2"/>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" s="2"/>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" s="2"/>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" s="2"/>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/doc/log/log_201608040230_zenghuixiang.xlsx
+++ b/doc/log/log_201608040230_zenghuixiang.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="B35:F138"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>日期</t>
   </si>
@@ -339,6 +340,15 @@
   </si>
   <si>
     <t>有些看不懂</t>
+  </si>
+  <si>
+    <t>2018.6.05</t>
+  </si>
+  <si>
+    <t>13:00-15:00</t>
+  </si>
+  <si>
+    <t>将表格信息跑进数据库</t>
   </si>
 </sst>
 </file>
@@ -346,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -368,7 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,75 +391,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +415,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -487,9 +452,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,12 +469,57 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -520,19 +530,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +686,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -562,145 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,15 +721,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -734,6 +735,65 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -761,56 +821,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -822,7 +832,7 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,16 +841,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,127 +859,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1295,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1839,7 +1846,7 @@
       <c r="D34" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1871,8 +1878,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D37" s="2"/>
+    <row r="37" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="38" ht="64.6" customHeight="1" spans="4:4">
       <c r="D38" s="2"/>

--- a/doc/log/log_201608040230_zenghuixiang.xlsx
+++ b/doc/log/log_201608040230_zenghuixiang.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="B35:F138"/>
+  <oleSize ref="B44:F147"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
   <si>
     <t>日期</t>
   </si>
@@ -349,6 +349,100 @@
   </si>
   <si>
     <t>将表格信息跑进数据库</t>
+  </si>
+  <si>
+    <t>2018.6.06</t>
+  </si>
+  <si>
+    <t>14:00-16:01</t>
+  </si>
+  <si>
+    <t>学习web块的相关知识</t>
+  </si>
+  <si>
+    <t>部分完成</t>
+  </si>
+  <si>
+    <t>2018.6.07</t>
+  </si>
+  <si>
+    <t>16:00-18:02</t>
+  </si>
+  <si>
+    <t>按照老师的代码修改网页主界面</t>
+  </si>
+  <si>
+    <t>2018.6.08</t>
+  </si>
+  <si>
+    <t>18:00-20:03</t>
+  </si>
+  <si>
+    <t>修改网页编辑页面</t>
+  </si>
+  <si>
+    <t>2018.6.09</t>
+  </si>
+  <si>
+    <t>20:00-22:04</t>
+  </si>
+  <si>
+    <t>对web进行运行</t>
+  </si>
+  <si>
+    <t>有网页，但没有数
+据</t>
+  </si>
+  <si>
+    <t>2018.6.10</t>
+  </si>
+  <si>
+    <t>21:00-23:05</t>
+  </si>
+  <si>
+    <t>编写mian界面</t>
+  </si>
+  <si>
+    <t>2018.6.11</t>
+  </si>
+  <si>
+    <t>8:00-10:06</t>
+  </si>
+  <si>
+    <t>git老师的项目，更新base部分</t>
+  </si>
+  <si>
+    <t>2018.6.12</t>
+  </si>
+  <si>
+    <t>10:00-12:07</t>
+  </si>
+  <si>
+    <t>学习修改的内容</t>
+  </si>
+  <si>
+    <t>部分看懂</t>
+  </si>
+  <si>
+    <t>2018.6.13</t>
+  </si>
+  <si>
+    <t>14:00-16:08</t>
+  </si>
+  <si>
+    <t>整理开发文档</t>
+  </si>
+  <si>
+    <t>完成一部分</t>
+  </si>
+  <si>
+    <t>2018.6.14</t>
+  </si>
+  <si>
+    <t>19:00-21:09</t>
+  </si>
+  <si>
+    <t>将学生信息展示到网页上</t>
   </si>
 </sst>
 </file>
@@ -356,10 +450,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -377,15 +471,39 @@
       <scheme val="major"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -400,8 +518,59 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,54 +584,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -476,8 +600,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,37 +614,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -530,187 +624,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,17 +818,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,11 +842,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,17 +876,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -800,27 +898,23 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -829,10 +923,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,142 +935,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1302,8 +1399,8 @@
   <sheetPr/>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B44" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1892,32 +1989,131 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D46" s="2"/>
+    <row r="38" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" ht="64.6" customHeight="1" spans="2:5">
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="47" ht="64.6" customHeight="1" spans="4:4">
       <c r="D47" s="2"/>

--- a/doc/log/log_201608040230_zenghuixiang.xlsx
+++ b/doc/log/log_201608040230_zenghuixiang.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="B44:F147"/>
+  <oleSize ref="B35:F138"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
   <si>
     <t>日期</t>
   </si>
@@ -349,100 +349,6 @@
   </si>
   <si>
     <t>将表格信息跑进数据库</t>
-  </si>
-  <si>
-    <t>2018.6.06</t>
-  </si>
-  <si>
-    <t>14:00-16:01</t>
-  </si>
-  <si>
-    <t>学习web块的相关知识</t>
-  </si>
-  <si>
-    <t>部分完成</t>
-  </si>
-  <si>
-    <t>2018.6.07</t>
-  </si>
-  <si>
-    <t>16:00-18:02</t>
-  </si>
-  <si>
-    <t>按照老师的代码修改网页主界面</t>
-  </si>
-  <si>
-    <t>2018.6.08</t>
-  </si>
-  <si>
-    <t>18:00-20:03</t>
-  </si>
-  <si>
-    <t>修改网页编辑页面</t>
-  </si>
-  <si>
-    <t>2018.6.09</t>
-  </si>
-  <si>
-    <t>20:00-22:04</t>
-  </si>
-  <si>
-    <t>对web进行运行</t>
-  </si>
-  <si>
-    <t>有网页，但没有数
-据</t>
-  </si>
-  <si>
-    <t>2018.6.10</t>
-  </si>
-  <si>
-    <t>21:00-23:05</t>
-  </si>
-  <si>
-    <t>编写mian界面</t>
-  </si>
-  <si>
-    <t>2018.6.11</t>
-  </si>
-  <si>
-    <t>8:00-10:06</t>
-  </si>
-  <si>
-    <t>git老师的项目，更新base部分</t>
-  </si>
-  <si>
-    <t>2018.6.12</t>
-  </si>
-  <si>
-    <t>10:00-12:07</t>
-  </si>
-  <si>
-    <t>学习修改的内容</t>
-  </si>
-  <si>
-    <t>部分看懂</t>
-  </si>
-  <si>
-    <t>2018.6.13</t>
-  </si>
-  <si>
-    <t>14:00-16:08</t>
-  </si>
-  <si>
-    <t>整理开发文档</t>
-  </si>
-  <si>
-    <t>完成一部分</t>
-  </si>
-  <si>
-    <t>2018.6.14</t>
-  </si>
-  <si>
-    <t>19:00-21:09</t>
-  </si>
-  <si>
-    <t>将学生信息展示到网页上</t>
   </si>
 </sst>
 </file>
@@ -450,10 +356,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -471,39 +377,15 @@
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,7 +400,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -526,7 +416,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,21 +430,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -568,48 +514,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,187 +530,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,11 +724,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,32 +754,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -876,6 +767,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -898,23 +800,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -923,10 +829,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -935,145 +841,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1399,8 +1302,8 @@
   <sheetPr/>
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B44" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1989,131 +1892,32 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" ht="64.6" customHeight="1" spans="2:5">
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="39" ht="64.6" customHeight="1" spans="2:5">
-      <c r="B39" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" ht="64.6" customHeight="1" spans="2:5">
-      <c r="B40" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" ht="64.6" customHeight="1" spans="2:5">
-      <c r="B41" t="s">
-        <v>118</v>
-      </c>
-      <c r="C41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" ht="64.6" customHeight="1" spans="2:5">
-      <c r="B42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" ht="64.6" customHeight="1" spans="2:5">
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E43" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" ht="64.6" customHeight="1" spans="2:5">
-      <c r="B44" t="s">
-        <v>128</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" ht="64.6" customHeight="1" spans="2:5">
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" ht="64.6" customHeight="1" spans="2:5">
-      <c r="B46" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E46" t="s">
-        <v>25</v>
-      </c>
+    <row r="38" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" ht="64.6" customHeight="1" spans="4:4">
+      <c r="D46" s="2"/>
     </row>
     <row r="47" ht="64.6" customHeight="1" spans="4:4">
       <c r="D47" s="2"/>

--- a/doc/log/log_201608040230_zenghuixiang.xlsx
+++ b/doc/log/log_201608040230_zenghuixiang.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F216AD-F2B2-47B2-BDE7-C6DBBCB58EC3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="B35:F138"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
   <si>
     <t>日期</t>
   </si>
@@ -349,19 +354,107 @@
   </si>
   <si>
     <t>将表格信息跑进数据库</t>
+  </si>
+  <si>
+    <t>2018.6.06</t>
+  </si>
+  <si>
+    <t>14:00-16:01</t>
+  </si>
+  <si>
+    <t>学习web块的相关知识</t>
+  </si>
+  <si>
+    <t>部分完成</t>
+  </si>
+  <si>
+    <t>2018.6.07</t>
+  </si>
+  <si>
+    <t>16:00-18:02</t>
+  </si>
+  <si>
+    <t>按照老师的代码修改网页主界面</t>
+  </si>
+  <si>
+    <t>2018.6.08</t>
+  </si>
+  <si>
+    <t>18:00-20:03</t>
+  </si>
+  <si>
+    <t>修改网页编辑页面</t>
+  </si>
+  <si>
+    <t>2018.6.09</t>
+  </si>
+  <si>
+    <t>20:00-22:04</t>
+  </si>
+  <si>
+    <t>对web进行运行</t>
+  </si>
+  <si>
+    <t>有网页，但没有数
+据</t>
+  </si>
+  <si>
+    <t>2018.6.10</t>
+  </si>
+  <si>
+    <t>21:00-23:05</t>
+  </si>
+  <si>
+    <t>编写mian界面</t>
+  </si>
+  <si>
+    <t>2018.6.11</t>
+  </si>
+  <si>
+    <t>8:00-10:06</t>
+  </si>
+  <si>
+    <t>git老师的项目，更新base部分</t>
+  </si>
+  <si>
+    <t>2018.6.12</t>
+  </si>
+  <si>
+    <t>10:00-12:07</t>
+  </si>
+  <si>
+    <t>学习修改的内容</t>
+  </si>
+  <si>
+    <t>部分看懂</t>
+  </si>
+  <si>
+    <t>2018.6.13</t>
+  </si>
+  <si>
+    <t>14:00-16:08</t>
+  </si>
+  <si>
+    <t>整理开发文档</t>
+  </si>
+  <si>
+    <t>完成一部分</t>
+  </si>
+  <si>
+    <t>2018.6.14</t>
+  </si>
+  <si>
+    <t>19:00-21:09</t>
+  </si>
+  <si>
+    <t>将学生信息展示到网页上</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,345 +470,22 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -723,255 +493,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -981,62 +509,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1294,19 +781,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
@@ -1314,7 +801,7 @@
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="64.6" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +835,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="64.6" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1365,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="64.6" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1382,7 +869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="64.6" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1399,7 +886,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="64.6" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +903,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="64.6" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1433,7 +920,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="64.6" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1450,7 +937,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="64.6" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1467,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="64.6" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" ht="64.6" customHeight="1" spans="1:5">
+    <row r="11" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1501,7 +988,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" ht="64.6" customHeight="1" spans="1:5">
+    <row r="12" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1518,7 +1005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" ht="64.6" customHeight="1" spans="1:5">
+    <row r="13" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1535,7 +1022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" ht="64.6" customHeight="1" spans="1:5">
+    <row r="14" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1552,7 +1039,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="64.6" customHeight="1" spans="1:5">
+    <row r="15" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1569,7 +1056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" ht="64.6" customHeight="1" spans="1:5">
+    <row r="16" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1586,7 +1073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" ht="64.6" customHeight="1" spans="1:5">
+    <row r="17" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1603,7 +1090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" ht="64.6" customHeight="1" spans="1:5">
+    <row r="18" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1620,7 +1107,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" ht="64.6" customHeight="1" spans="1:5">
+    <row r="19" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1637,7 +1124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" ht="64.6" customHeight="1" spans="1:5">
+    <row r="20" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1654,7 +1141,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" ht="64.6" customHeight="1" spans="1:5">
+    <row r="21" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1671,7 +1158,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" ht="64.6" customHeight="1" spans="2:5">
+    <row r="22" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
         <v>68</v>
       </c>
@@ -1685,7 +1172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" ht="64.6" customHeight="1" spans="2:5">
+    <row r="23" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>71</v>
       </c>
@@ -1699,7 +1186,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" ht="64.6" customHeight="1" spans="2:5">
+    <row r="24" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>74</v>
       </c>
@@ -1713,7 +1200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" ht="64.6" customHeight="1" spans="2:5">
+    <row r="25" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -1727,7 +1214,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" ht="64.6" customHeight="1" spans="2:4">
+    <row r="26" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -1738,7 +1225,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" ht="64.6" customHeight="1" spans="2:5">
+    <row r="27" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -1752,7 +1239,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" ht="64.6" customHeight="1" spans="2:5">
+    <row r="28" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -1766,7 +1253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" ht="64.6" customHeight="1" spans="2:5">
+    <row r="29" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -1780,7 +1267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" ht="64.6" customHeight="1" spans="2:5">
+    <row r="30" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -1794,7 +1281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" ht="64.6" customHeight="1" spans="2:5">
+    <row r="31" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>88</v>
       </c>
@@ -1808,7 +1295,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" ht="64.6" customHeight="1" spans="2:5">
+    <row r="32" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
         <v>90</v>
       </c>
@@ -1822,7 +1309,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" ht="64.6" customHeight="1" spans="2:5">
+    <row r="33" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>93</v>
       </c>
@@ -1836,7 +1323,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" ht="64.6" customHeight="1" spans="2:5">
+    <row r="34" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>97</v>
       </c>
@@ -1850,7 +1337,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" ht="64.6" customHeight="1" spans="2:5">
+    <row r="35" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>100</v>
       </c>
@@ -1864,7 +1351,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" ht="64.6" customHeight="1" spans="2:5">
+    <row r="36" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>102</v>
       </c>
@@ -1878,7 +1365,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" ht="64.6" customHeight="1" spans="2:5">
+    <row r="37" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" t="s">
         <v>105</v>
       </c>
@@ -1892,209 +1379,308 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" ht="64.6" customHeight="1" spans="4:4">
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" ht="64.6" customHeight="1" spans="4:4">
+    <row r="38" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>112</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>115</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>123</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D47" s="2"/>
     </row>
-    <row r="48" ht="64.6" customHeight="1" spans="4:4">
+    <row r="48" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="2"/>
     </row>
-    <row r="49" ht="64.6" customHeight="1" spans="4:4">
+    <row r="49" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D49" s="2"/>
     </row>
-    <row r="50" ht="64.6" customHeight="1" spans="4:4">
+    <row r="50" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D50" s="2"/>
     </row>
-    <row r="51" ht="64.6" customHeight="1" spans="4:4">
+    <row r="51" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D51" s="2"/>
     </row>
-    <row r="52" ht="64.6" customHeight="1" spans="4:4">
+    <row r="52" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D52" s="2"/>
     </row>
-    <row r="53" ht="64.6" customHeight="1" spans="4:4">
+    <row r="53" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D53" s="2"/>
     </row>
-    <row r="54" ht="64.6" customHeight="1" spans="4:4">
+    <row r="54" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D54" s="2"/>
     </row>
-    <row r="55" ht="64.6" customHeight="1" spans="4:4">
+    <row r="55" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D55" s="2"/>
     </row>
-    <row r="56" ht="64.6" customHeight="1" spans="4:4">
+    <row r="56" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D56" s="2"/>
     </row>
-    <row r="57" ht="64.6" customHeight="1" spans="4:4">
+    <row r="57" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D57" s="2"/>
     </row>
-    <row r="58" ht="64.6" customHeight="1" spans="4:4">
+    <row r="58" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D58" s="2"/>
     </row>
-    <row r="59" ht="64.6" customHeight="1" spans="4:4">
+    <row r="59" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D59" s="2"/>
     </row>
-    <row r="60" ht="64.6" customHeight="1" spans="4:4">
+    <row r="60" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D60" s="2"/>
     </row>
-    <row r="61" ht="64.6" customHeight="1" spans="4:4">
+    <row r="61" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D61" s="2"/>
     </row>
-    <row r="62" ht="64.6" customHeight="1" spans="4:4">
+    <row r="62" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D62" s="2"/>
     </row>
-    <row r="63" ht="64.6" customHeight="1" spans="4:4">
+    <row r="63" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D63" s="2"/>
     </row>
-    <row r="64" ht="64.6" customHeight="1" spans="4:4">
+    <row r="64" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D64" s="2"/>
     </row>
-    <row r="65" ht="64.6" customHeight="1" spans="4:4">
+    <row r="65" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D65" s="2"/>
     </row>
-    <row r="66" ht="64.6" customHeight="1" spans="4:4">
+    <row r="66" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D66" s="2"/>
     </row>
-    <row r="67" ht="64.6" customHeight="1" spans="4:4">
+    <row r="67" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" ht="64.6" customHeight="1" spans="4:4">
+    <row r="68" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D68" s="2"/>
     </row>
-    <row r="69" ht="64.6" customHeight="1" spans="4:4">
+    <row r="69" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="4:4">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="4:4">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="4:4">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="4:4">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="4:4">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="4:4">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="4:4">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="4:4">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="4:4">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="4:4">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="4:4">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="4:4">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="4:4">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="4:4">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="4:4">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="4:4">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="4:4">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="4:4">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="4:4">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="4:4">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="4:4">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="4:4">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="4:4">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="4:4">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="4:4">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="4:4">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="4:4">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="4:4">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="4:4">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="4:4">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="4:4">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="4:4">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="4:4">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="4:4">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D103" s="2"/>
     </row>
-    <row r="104" spans="4:4">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D104" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040230_zenghuixiang.xlsx
+++ b/doc/log/log_201608040230_zenghuixiang.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chen\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78F216AD-F2B2-47B2-BDE7-C6DBBCB58EC3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174">
   <si>
     <t>日期</t>
   </si>
@@ -448,13 +442,124 @@
   </si>
   <si>
     <t>将学生信息展示到网页上</t>
+  </si>
+  <si>
+    <t>2018.6.15</t>
+  </si>
+  <si>
+    <t>13:00-16:00</t>
+  </si>
+  <si>
+    <t>学习iview</t>
+  </si>
+  <si>
+    <t>2018.6.16</t>
+  </si>
+  <si>
+    <t>2018.6.17</t>
+  </si>
+  <si>
+    <t>2018.6.18</t>
+  </si>
+  <si>
+    <t>学习vue</t>
+  </si>
+  <si>
+    <t>2018.6.19</t>
+  </si>
+  <si>
+    <t>2018.6.20</t>
+  </si>
+  <si>
+    <t>2018.6.21</t>
+  </si>
+  <si>
+    <t>2018.6.22</t>
+  </si>
+  <si>
+    <t>利用iview建立表格</t>
+  </si>
+  <si>
+    <t>2018.6.23</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>2018.6.24</t>
+  </si>
+  <si>
+    <t>开始编写查询功能</t>
+  </si>
+  <si>
+    <t>2018.6.25</t>
+  </si>
+  <si>
+    <t>完成学号查询</t>
+  </si>
+  <si>
+    <t>2018.6.26</t>
+  </si>
+  <si>
+    <t>完成姓名查询</t>
+  </si>
+  <si>
+    <t>2018.6.27</t>
+  </si>
+  <si>
+    <t>2018.6.28</t>
+  </si>
+  <si>
+    <t>查询功能完成</t>
+  </si>
+  <si>
+    <t>2018.6.29</t>
+  </si>
+  <si>
+    <t>开始写概要设计</t>
+  </si>
+  <si>
+    <t>2018.6.30</t>
+  </si>
+  <si>
+    <t>写概要设计</t>
+  </si>
+  <si>
+    <t>2018.7.01</t>
+  </si>
+  <si>
+    <t>整理文档</t>
+  </si>
+  <si>
+    <t>2018.7.02</t>
+  </si>
+  <si>
+    <t>整合文档</t>
+  </si>
+  <si>
+    <t>2018.7.03</t>
+  </si>
+  <si>
+    <t>将小组模块整合上传</t>
+  </si>
+  <si>
+    <t>2018.7.04</t>
+  </si>
+  <si>
+    <t>将小组文档整合上传</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,22 +575,345 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -493,13 +921,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,21 +1179,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -781,19 +1492,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E104"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
@@ -801,7 +1512,7 @@
     <col min="5" max="5" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="26.1" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,7 +1529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="64.7" customHeight="1" spans="1:5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -835,7 +1546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" ht="64.7" customHeight="1" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -852,7 +1563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" ht="64.7" customHeight="1" spans="1:5">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -869,7 +1580,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="64.7" customHeight="1" spans="1:5">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -886,7 +1597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="64.7" customHeight="1" spans="1:5">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -903,7 +1614,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" ht="64.7" customHeight="1" spans="1:5">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -920,7 +1631,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" ht="64.7" customHeight="1" spans="1:5">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -937,7 +1648,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" ht="64.7" customHeight="1" spans="1:5">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -954,7 +1665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" ht="64.7" customHeight="1" spans="1:5">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -971,7 +1682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" ht="64.7" customHeight="1" spans="1:5">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -988,7 +1699,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" ht="64.7" customHeight="1" spans="1:5">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1005,7 +1716,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" ht="64.7" customHeight="1" spans="1:5">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1022,7 +1733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" ht="64.7" customHeight="1" spans="1:5">
       <c r="A14" t="s">
         <v>46</v>
       </c>
@@ -1039,7 +1750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" ht="64.7" customHeight="1" spans="1:5">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1056,7 +1767,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" ht="64.7" customHeight="1" spans="1:5">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -1073,7 +1784,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" ht="64.7" customHeight="1" spans="1:5">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -1090,7 +1801,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" ht="64.7" customHeight="1" spans="1:5">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -1107,7 +1818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" ht="64.7" customHeight="1" spans="1:5">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -1124,7 +1835,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" ht="64.7" customHeight="1" spans="1:5">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1141,7 +1852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" ht="64.7" customHeight="1" spans="1:5">
       <c r="A21" t="s">
         <v>65</v>
       </c>
@@ -1158,7 +1869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" ht="64.7" customHeight="1" spans="2:5">
       <c r="B22" t="s">
         <v>68</v>
       </c>
@@ -1172,7 +1883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" ht="64.7" customHeight="1" spans="2:5">
       <c r="B23" t="s">
         <v>71</v>
       </c>
@@ -1186,7 +1897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" ht="64.7" customHeight="1" spans="2:5">
       <c r="B24" t="s">
         <v>74</v>
       </c>
@@ -1200,7 +1911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" ht="64.7" customHeight="1" spans="2:5">
       <c r="B25" t="s">
         <v>77</v>
       </c>
@@ -1214,7 +1925,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" ht="64.7" customHeight="1" spans="2:4">
       <c r="B26" t="s">
         <v>80</v>
       </c>
@@ -1225,7 +1936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" ht="64.7" customHeight="1" spans="2:5">
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -1239,7 +1950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" ht="64.7" customHeight="1" spans="2:5">
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -1253,7 +1964,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" ht="64.7" customHeight="1" spans="2:5">
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -1267,7 +1978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" ht="64.7" customHeight="1" spans="2:5">
       <c r="B30" t="s">
         <v>86</v>
       </c>
@@ -1281,7 +1992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" ht="64.7" customHeight="1" spans="2:5">
       <c r="B31" t="s">
         <v>88</v>
       </c>
@@ -1295,7 +2006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" ht="64.7" customHeight="1" spans="2:5">
       <c r="B32" t="s">
         <v>90</v>
       </c>
@@ -1309,7 +2020,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" ht="64.7" customHeight="1" spans="2:5">
       <c r="B33" t="s">
         <v>93</v>
       </c>
@@ -1323,7 +2034,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" ht="64.7" customHeight="1" spans="2:5">
       <c r="B34" t="s">
         <v>97</v>
       </c>
@@ -1337,7 +2048,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" ht="64.7" customHeight="1" spans="2:5">
       <c r="B35" t="s">
         <v>100</v>
       </c>
@@ -1351,7 +2062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" ht="64.7" customHeight="1" spans="2:5">
       <c r="B36" t="s">
         <v>102</v>
       </c>
@@ -1365,7 +2076,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" ht="64.7" customHeight="1" spans="2:5">
       <c r="B37" t="s">
         <v>105</v>
       </c>
@@ -1379,7 +2090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" ht="64.7" customHeight="1" spans="2:5">
       <c r="B38" t="s">
         <v>108</v>
       </c>
@@ -1393,7 +2104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" ht="64.7" customHeight="1" spans="2:5">
       <c r="B39" t="s">
         <v>112</v>
       </c>
@@ -1407,7 +2118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" ht="64.7" customHeight="1" spans="2:5">
       <c r="B40" t="s">
         <v>115</v>
       </c>
@@ -1421,7 +2132,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" ht="64.7" customHeight="1" spans="2:5">
       <c r="B41" t="s">
         <v>118</v>
       </c>
@@ -1431,11 +2142,11 @@
       <c r="D41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" ht="64.7" customHeight="1" spans="2:5">
       <c r="B42" t="s">
         <v>122</v>
       </c>
@@ -1449,7 +2160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" ht="64.7" customHeight="1" spans="2:5">
       <c r="B43" t="s">
         <v>125</v>
       </c>
@@ -1463,7 +2174,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" ht="64.7" customHeight="1" spans="2:5">
       <c r="B44" t="s">
         <v>128</v>
       </c>
@@ -1477,7 +2188,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" ht="64.7" customHeight="1" spans="2:5">
       <c r="B45" t="s">
         <v>132</v>
       </c>
@@ -1491,7 +2202,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" ht="64.7" customHeight="1" spans="2:5">
       <c r="B46" t="s">
         <v>136</v>
       </c>
@@ -1505,182 +2216,396 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="2:5" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>140</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B55" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" t="s">
+        <v>140</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B58" t="s">
+        <v>157</v>
+      </c>
+      <c r="C58" t="s">
+        <v>140</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>140</v>
+      </c>
+      <c r="D59" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B60" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B61" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" t="s">
+        <v>140</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B62" t="s">
+        <v>164</v>
+      </c>
+      <c r="C62" t="s">
+        <v>140</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B64" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B65" t="s">
+        <v>170</v>
+      </c>
+      <c r="C65" t="s">
+        <v>140</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" ht="64.7" customHeight="1" spans="2:5">
+      <c r="B66" t="s">
+        <v>172</v>
+      </c>
+      <c r="C66" t="s">
+        <v>140</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" ht="64.7" customHeight="1" spans="4:4">
       <c r="D67" s="2"/>
     </row>
-    <row r="68" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="4:4">
       <c r="D68" s="2"/>
     </row>
-    <row r="69" spans="4:4" ht="64.7" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="4:4">
       <c r="D69" s="2"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:4">
       <c r="D70" s="2"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="4:4">
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:4">
       <c r="D72" s="2"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="4:4">
       <c r="D73" s="2"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:4">
       <c r="D74" s="2"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="4:4">
       <c r="D75" s="2"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="4:4">
       <c r="D76" s="2"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="4:4">
       <c r="D77" s="2"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="4:4">
       <c r="D78" s="2"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="4:4">
       <c r="D79" s="2"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="4:4">
       <c r="D80" s="2"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:4">
       <c r="D81" s="2"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="4:4">
       <c r="D82" s="2"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:4">
       <c r="D83" s="2"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="4:4">
       <c r="D84" s="2"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:4">
       <c r="D85" s="2"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="4:4">
       <c r="D86" s="2"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="4:4">
       <c r="D87" s="2"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="4:4">
       <c r="D88" s="2"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="4:4">
       <c r="D89" s="2"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="4:4">
       <c r="D90" s="2"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="91" spans="4:4">
       <c r="D91" s="2"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="92" spans="4:4">
       <c r="D92" s="2"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="93" spans="4:4">
       <c r="D93" s="2"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="94" spans="4:4">
       <c r="D94" s="2"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="95" spans="4:4">
       <c r="D95" s="2"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="96" spans="4:4">
       <c r="D96" s="2"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="97" spans="4:4">
       <c r="D97" s="2"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="98" spans="4:4">
       <c r="D98" s="2"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="4:4">
       <c r="D99" s="2"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="4:4">
       <c r="D100" s="2"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="4:4">
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="4:4">
       <c r="D102" s="2"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D103" s="2"/>
-    </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
-      <c r="D104" s="2"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>